--- a/ResourceFiles/Contoso Asset Data.xlsx
+++ b/ResourceFiles/Contoso Asset Data.xlsx
@@ -1,27 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28724"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://microsoft-my.sharepoint.com/personal/tfrink_microsoft_com/Documents/Documents/BUSS/Learn courses/MS-4004 - V2 Mar 2025/Source docs/LP2-Empower your workforce with M365 use cases/M3-IT use case/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="R:\Projects\LeX\FY25\ILT\MSU121821_ILT_May\MS-4004_GitHub\10_DTP\id-ID\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{726349DB-94A6-447B-B9A3-B303370F2A99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="0"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="2" r:id="rId4"/>
-    <sheet name="Sheet2" sheetId="3" r:id="rId5"/>
-    <sheet name="Lembar3" sheetId="4" r:id="rId6"/>
-    <sheet name="Lembar4" sheetId="5" r:id="rId7"/>
-    <sheet name="Sheet5" sheetId="6" r:id="rId8"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="3" r:id="rId2"/>
+    <sheet name="Lembar3" sheetId="4" r:id="rId3"/>
+    <sheet name="Lembar4" sheetId="5" r:id="rId4"/>
+    <sheet name="Sheet5" sheetId="6" r:id="rId5"/>
   </sheets>
-  <definedNames/>
   <calcPr calcId="191028"/>
   <pivotCaches>
-    <pivotCache cacheId="3328" r:id="rId2"/>
+    <pivotCache cacheId="9" r:id="rId6"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -2234,19 +2234,13 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -2260,20 +2254,6 @@
       <color rgb="FF424242"/>
       <name val="Segoe UI"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <color theme="1" tint="0.35"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color theme="1" tint="0.35"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -2315,6 +2295,7 @@
       <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left/>
@@ -2325,6 +2306,7 @@
       <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="medium">
@@ -2339,6 +2321,7 @@
       <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left/>
@@ -2351,134 +2334,39 @@
       <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment/>
-      <protection/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="14" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Percent" xfId="15" builtinId="5"/>
-    <cellStyle name="Currency" xfId="16" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="17" builtinId="7"/>
-    <cellStyle name="Comma" xfId="18" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="19" builtinId="6"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -2491,7 +2379,8 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -2503,13 +2392,14 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
-    <c:name>[0]Sheet2!PivotTable1</c:name>
+    <c:name>[Contoso Asset Data.xlsx]Sheet2!PivotTable1</c:name>
+    <c:fmtId val="0"/>
   </c:pivotSource>
   <c:chart>
     <c:title>
       <c:tx>
         <c:rich>
-          <a:bodyPr vert="horz" rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" anchor="ctr" anchorCtr="1" wrap="square"/>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
@@ -2529,7 +2419,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2559,45 +2448,124 @@
         </c:marker>
         <c:dLbl>
           <c:idx val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-              <a:spAutoFit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="75000"/>
-                      <a:lumOff val="25000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
+          <c:delete val="1"/>
           <c:extLst>
             <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
           </c:extLst>
         </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="1"/>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:delete val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="2"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050" cap="flat" cmpd="sng">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="3"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent2"/>
+          </a:solidFill>
+          <a:ln w="19050" cap="flat" cmpd="sng">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="4"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent3"/>
+          </a:solidFill>
+          <a:ln w="19050" cap="flat" cmpd="sng">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="5"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent4"/>
+          </a:solidFill>
+          <a:ln w="19050" cap="flat" cmpd="sng">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="6"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent5"/>
+          </a:solidFill>
+          <a:ln w="19050" cap="flat" cmpd="sng">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="7"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent6"/>
+          </a:solidFill>
+          <a:ln w="19050" cap="flat" cmpd="sng">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="8"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:lumMod val="60000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:ln w="19050" cap="flat" cmpd="sng">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
       </c:pivotFmt>
     </c:pivotFmts>
     <c:plotArea>
@@ -2618,9 +2586,9 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
-          <c:explosion val="0"/>
           <c:dPt>
             <c:idx val="0"/>
+            <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
@@ -2632,9 +2600,15 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-1CC4-47CE-80E6-3847C63683CA}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
+            <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
                 <a:schemeClr val="accent2"/>
@@ -2646,9 +2620,15 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-1CC4-47CE-80E6-3847C63683CA}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="2"/>
+            <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
                 <a:schemeClr val="accent3"/>
@@ -2660,9 +2640,15 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-1CC4-47CE-80E6-3847C63683CA}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="3"/>
+            <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
                 <a:schemeClr val="accent4"/>
@@ -2674,9 +2660,15 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-1CC4-47CE-80E6-3847C63683CA}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="4"/>
+            <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
                 <a:schemeClr val="accent5"/>
@@ -2688,9 +2680,15 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000009-1CC4-47CE-80E6-3847C63683CA}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="5"/>
+            <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
                 <a:schemeClr val="accent6"/>
@@ -2702,9 +2700,15 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000B-1CC4-47CE-80E6-3847C63683CA}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="6"/>
+            <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
                 <a:schemeClr val="accent1">
@@ -2718,6 +2722,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000D-1CC4-47CE-80E6-3847C63683CA}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:cat>
             <c:strRef>
@@ -2793,6 +2802,7 @@
           <c:showBubbleSize val="0"/>
           <c:showLeaderLines val="1"/>
         </c:dLbls>
+        <c:firstSliceAng val="0"/>
       </c:pieChart>
       <c:spPr>
         <a:noFill/>
@@ -2804,7 +2814,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2814,11 +2823,11 @@
         <a:effectLst/>
       </c:spPr>
       <c:txPr>
-        <a:bodyPr vert="horz" rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" anchor="ctr" anchorCtr="1" wrap="square"/>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
         <a:lstStyle/>
         <a:p>
           <a:pPr algn="ctr">
-            <a:defRPr lang="en-US" sz="900" b="0" i="0" u="none" baseline="0" kern="1200">
+            <a:defRPr lang="en-US" sz="900" b="0" i="0" u="none" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -2853,6 +2862,11 @@
     </a:ln>
     <a:effectLst/>
   </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
   <c:extLst>
     <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{E28EC0CA-F0BB-4C9C-879D-F8772B89E7AC}">
       <c16:pivotOptions16>
@@ -2864,7 +2878,8 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -2876,13 +2891,14 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
-    <c:name>[0]Lembar3!PivotTable2</c:name>
+    <c:name>[Contoso Asset Data.xlsx]Lembar3!PivotTable2</c:name>
+    <c:fmtId val="0"/>
   </c:pivotSource>
   <c:chart>
     <c:title>
       <c:tx>
         <c:rich>
-          <a:bodyPr vert="horz" rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" anchor="ctr" anchorCtr="1" wrap="square"/>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
@@ -2902,7 +2918,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2932,45 +2947,108 @@
         </c:marker>
         <c:dLbl>
           <c:idx val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-              <a:spAutoFit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="75000"/>
-                      <a:lumOff val="25000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
+          <c:delete val="1"/>
           <c:extLst>
             <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
           </c:extLst>
         </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="1"/>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:delete val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="2"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050" cap="flat" cmpd="sng">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="3"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent2"/>
+          </a:solidFill>
+          <a:ln w="19050" cap="flat" cmpd="sng">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="4"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent3"/>
+          </a:solidFill>
+          <a:ln w="19050" cap="flat" cmpd="sng">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="5"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent4"/>
+          </a:solidFill>
+          <a:ln w="19050" cap="flat" cmpd="sng">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="6"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent5"/>
+          </a:solidFill>
+          <a:ln w="19050" cap="flat" cmpd="sng">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="7"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent6"/>
+          </a:solidFill>
+          <a:ln w="19050" cap="flat" cmpd="sng">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
       </c:pivotFmt>
     </c:pivotFmts>
     <c:plotArea>
@@ -2991,9 +3069,9 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
-          <c:explosion val="0"/>
           <c:dPt>
             <c:idx val="0"/>
+            <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
@@ -3005,9 +3083,15 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-D91B-49C0-93AD-4F410D3B9A23}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
+            <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
                 <a:schemeClr val="accent2"/>
@@ -3019,9 +3103,15 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-D91B-49C0-93AD-4F410D3B9A23}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="2"/>
+            <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
                 <a:schemeClr val="accent3"/>
@@ -3033,9 +3123,15 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-D91B-49C0-93AD-4F410D3B9A23}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="3"/>
+            <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
                 <a:schemeClr val="accent4"/>
@@ -3047,9 +3143,15 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-D91B-49C0-93AD-4F410D3B9A23}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="4"/>
+            <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
                 <a:schemeClr val="accent5"/>
@@ -3061,9 +3163,15 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000009-D91B-49C0-93AD-4F410D3B9A23}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="5"/>
+            <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
                 <a:schemeClr val="accent6"/>
@@ -3075,6 +3183,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000B-D91B-49C0-93AD-4F410D3B9A23}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:cat>
             <c:strRef>
@@ -3144,6 +3257,7 @@
           <c:showBubbleSize val="0"/>
           <c:showLeaderLines val="1"/>
         </c:dLbls>
+        <c:firstSliceAng val="0"/>
       </c:pieChart>
       <c:spPr>
         <a:noFill/>
@@ -3155,7 +3269,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3165,11 +3278,11 @@
         <a:effectLst/>
       </c:spPr>
       <c:txPr>
-        <a:bodyPr vert="horz" rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" anchor="ctr" anchorCtr="1" wrap="square"/>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
         <a:lstStyle/>
         <a:p>
           <a:pPr algn="ctr">
-            <a:defRPr lang="en-US" sz="900" b="0" i="0" u="none" baseline="0" kern="1200">
+            <a:defRPr lang="en-US" sz="900" b="0" i="0" u="none" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -3204,6 +3317,11 @@
     </a:ln>
     <a:effectLst/>
   </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
   <c:extLst>
     <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{E28EC0CA-F0BB-4C9C-879D-F8772B89E7AC}">
       <c16:pivotOptions16>
@@ -3214,1126 +3332,8 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050">
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="25400">
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050">
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="25400">
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
@@ -4347,24 +3347,24 @@
       <xdr:row>17</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame>
+    <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1" descr="Chart type: Pie. &#10;&#10;Description automatically generated">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9ea9ce34-aef7-7af1-34f0-060468b1419e}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9EA9CE34-AEF7-7AF1-34F0-060468B1419E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="3286125" y="571500"/>
-        <a:ext cx="5105400" cy="2743200"/>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="rId1"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -4374,7 +3374,7 @@
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
@@ -4388,24 +3388,24 @@
       <xdr:row>17</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame>
+    <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1" descr="Chart type: Pie. &#10;&#10;Description automatically generated">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{f65844f0-5dcb-f56c-ed1d-a4beee34dfe3}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F65844F0-5DCB-F56C-ED1D-A4BEEE34DFE3}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="3838575" y="571500"/>
-        <a:ext cx="5105400" cy="2743200"/>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="rId1"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -4415,7 +3415,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" refreshedBy="Excel Services" refreshedDate="45746.751344791664" recordCount="104">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Excel Services" refreshedDate="45746.751344791664" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="104" xr:uid="{00000000-000A-0000-FFFF-FFFF000D0000}">
   <cacheSource type="worksheet">
     <worksheetSource ref="A1:G105" sheet="Sheet1"/>
   </cacheSource>
@@ -4537,79 +3537,79 @@
       </sharedItems>
     </cacheField>
     <cacheField name="Purchase Date" numFmtId="14">
-      <sharedItems containsSemiMixedTypes="0" containsNonDate="0" containsDate="1" containsString="0" minDate="2019-04-25T00:00:00" maxDate="2025-01-31T00:00:00" count="0"/>
+      <sharedItems containsSemiMixedTypes="0" containsNonDate="0" containsDate="1" containsString="0" minDate="2019-04-25T00:00:00" maxDate="2025-01-31T00:00:00"/>
     </cacheField>
     <cacheField name="Warranty Expiration Date" numFmtId="14">
       <sharedItems containsNonDate="0" containsDate="1" containsString="0" containsBlank="1" minDate="2022-04-25T00:00:00" maxDate="2028-01-31T00:00:00" count="65">
-        <d v="2025-03-25T00:00:00.000"/>
-        <d v="2024-07-14T00:00:00.000"/>
+        <d v="2025-03-25T00:00:00"/>
+        <d v="2024-07-14T00:00:00"/>
         <m/>
-        <d v="2025-11-05T00:00:00.000"/>
-        <d v="2022-05-22T00:00:00.000"/>
-        <d v="2025-08-30T00:00:00.000"/>
-        <d v="2025-06-15T00:00:00.000"/>
-        <d v="2027-06-18T00:00:00.000"/>
-        <d v="2022-09-10T00:00:00.000"/>
-        <d v="2025-04-05T00:00:00.000"/>
-        <d v="2025-05-20T00:00:00.000"/>
-        <d v="2023-03-30T00:00:00.000"/>
-        <d v="2025-08-25T00:00:00.000"/>
-        <d v="2025-06-10T00:00:00.000"/>
-        <d v="2025-08-15T00:00:00.000"/>
-        <d v="2025-12-20T00:00:00.000"/>
-        <d v="2022-04-25T00:00:00.000"/>
-        <d v="2025-09-30T00:00:00.000"/>
-        <d v="2026-11-10T00:00:00.000"/>
-        <d v="2022-06-05T00:00:00.000"/>
-        <d v="2025-06-20T00:00:00.000"/>
-        <d v="2025-07-25T00:00:00.000"/>
-        <d v="2023-01-10T00:00:00.000"/>
-        <d v="2025-05-30T00:00:00.000"/>
-        <d v="2027-09-20T00:00:00.000"/>
-        <d v="2023-02-25T00:00:00.000"/>
-        <d v="2022-05-10T00:00:00.000"/>
-        <d v="2023-04-25T00:00:00.000"/>
-        <d v="2022-07-30T00:00:00.000"/>
-        <d v="2025-01-05T00:00:00.000"/>
-        <d v="2024-06-10T00:00:00.000"/>
-        <d v="2023-10-15T00:00:00.000"/>
-        <d v="2025-10-25T00:00:00.000"/>
-        <d v="2028-01-30T00:00:00.000"/>
-        <d v="2023-05-05T00:00:00.000"/>
-        <d v="2027-08-10T00:00:00.000"/>
-        <d v="2025-02-15T00:00:00.000"/>
-        <d v="2023-01-25T00:00:00.000"/>
-        <d v="2025-04-30T00:00:00.000"/>
-        <d v="2026-07-10T00:00:00.000"/>
-        <d v="2023-11-15T00:00:00.000"/>
-        <d v="2026-03-25T00:00:00.000"/>
-        <d v="2026-11-05T00:00:00.000"/>
-        <d v="2025-12-15T00:00:00.000"/>
-        <d v="2026-06-18T00:00:00.000"/>
-        <d v="2025-09-10T00:00:00.000"/>
-        <d v="2025-06-05T00:00:00.000"/>
-        <d v="2026-11-20T00:00:00.000"/>
-        <d v="2026-03-30T00:00:00.000"/>
-        <d v="2024-08-15T00:00:00.000"/>
-        <d v="2023-12-20T00:00:00.000"/>
-        <d v="2025-11-10T00:00:00.000"/>
-        <d v="2026-07-25T00:00:00.000"/>
-        <d v="2026-01-10T00:00:00.000"/>
-        <d v="2027-05-10T00:00:00.000"/>
-        <d v="2024-12-20T00:00:00.000"/>
-        <d v="2025-04-25T00:00:00.000"/>
-        <d v="2025-05-05T00:00:00.000"/>
-        <d v="2024-11-30T00:00:00.000"/>
-        <d v="2027-05-05T00:00:00.000"/>
-        <d v="2022-08-10T00:00:00.000"/>
-        <d v="2025-07-15T00:00:00.000"/>
-        <d v="2028-01-25T00:00:00.000"/>
-        <d v="2027-07-10T00:00:00.000"/>
-        <d v="2026-11-15T00:00:00.000"/>
+        <d v="2025-11-05T00:00:00"/>
+        <d v="2022-05-22T00:00:00"/>
+        <d v="2025-08-30T00:00:00"/>
+        <d v="2025-06-15T00:00:00"/>
+        <d v="2027-06-18T00:00:00"/>
+        <d v="2022-09-10T00:00:00"/>
+        <d v="2025-04-05T00:00:00"/>
+        <d v="2025-05-20T00:00:00"/>
+        <d v="2023-03-30T00:00:00"/>
+        <d v="2025-08-25T00:00:00"/>
+        <d v="2025-06-10T00:00:00"/>
+        <d v="2025-08-15T00:00:00"/>
+        <d v="2025-12-20T00:00:00"/>
+        <d v="2022-04-25T00:00:00"/>
+        <d v="2025-09-30T00:00:00"/>
+        <d v="2026-11-10T00:00:00"/>
+        <d v="2022-06-05T00:00:00"/>
+        <d v="2025-06-20T00:00:00"/>
+        <d v="2025-07-25T00:00:00"/>
+        <d v="2023-01-10T00:00:00"/>
+        <d v="2025-05-30T00:00:00"/>
+        <d v="2027-09-20T00:00:00"/>
+        <d v="2023-02-25T00:00:00"/>
+        <d v="2022-05-10T00:00:00"/>
+        <d v="2023-04-25T00:00:00"/>
+        <d v="2022-07-30T00:00:00"/>
+        <d v="2025-01-05T00:00:00"/>
+        <d v="2024-06-10T00:00:00"/>
+        <d v="2023-10-15T00:00:00"/>
+        <d v="2025-10-25T00:00:00"/>
+        <d v="2028-01-30T00:00:00"/>
+        <d v="2023-05-05T00:00:00"/>
+        <d v="2027-08-10T00:00:00"/>
+        <d v="2025-02-15T00:00:00"/>
+        <d v="2023-01-25T00:00:00"/>
+        <d v="2025-04-30T00:00:00"/>
+        <d v="2026-07-10T00:00:00"/>
+        <d v="2023-11-15T00:00:00"/>
+        <d v="2026-03-25T00:00:00"/>
+        <d v="2026-11-05T00:00:00"/>
+        <d v="2025-12-15T00:00:00"/>
+        <d v="2026-06-18T00:00:00"/>
+        <d v="2025-09-10T00:00:00"/>
+        <d v="2025-06-05T00:00:00"/>
+        <d v="2026-11-20T00:00:00"/>
+        <d v="2026-03-30T00:00:00"/>
+        <d v="2024-08-15T00:00:00"/>
+        <d v="2023-12-20T00:00:00"/>
+        <d v="2025-11-10T00:00:00"/>
+        <d v="2026-07-25T00:00:00"/>
+        <d v="2026-01-10T00:00:00"/>
+        <d v="2027-05-10T00:00:00"/>
+        <d v="2024-12-20T00:00:00"/>
+        <d v="2025-04-25T00:00:00"/>
+        <d v="2025-05-05T00:00:00"/>
+        <d v="2024-11-30T00:00:00"/>
+        <d v="2027-05-05T00:00:00"/>
+        <d v="2022-08-10T00:00:00"/>
+        <d v="2025-07-15T00:00:00"/>
+        <d v="2028-01-25T00:00:00"/>
+        <d v="2027-07-10T00:00:00"/>
+        <d v="2026-11-15T00:00:00"/>
       </sharedItems>
     </cacheField>
     <cacheField name="License Expiration Date" numFmtId="14">
-      <sharedItems containsNonDate="0" containsDate="1" containsString="0" containsBlank="1" minDate="2023-05-15T00:00:00" maxDate="2027-09-21T00:00:00" count="0"/>
+      <sharedItems containsNonDate="0" containsDate="1" containsString="0" containsBlank="1" minDate="2023-05-15T00:00:00" maxDate="2027-09-21T00:00:00"/>
     </cacheField>
     <cacheField name="Current Status" numFmtId="0">
       <sharedItems count="3">
@@ -4630,6 +3630,11 @@
       </sharedItems>
     </cacheField>
   </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
 </pivotCacheDefinition>
 </file>
 
@@ -5575,11 +4580,11 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="3328" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" showMissing="1" preserveFormatting="1" useAutoFormatting="1" itemPrintTitles="1" compact="0" compactData="0" createdVersion="8" updatedVersion="8" indent="0" multipleFieldFilters="0" showMemberPropertyTips="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0100-000000000000}" name="PivotTable1" cacheId="9" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0" chartFormat="1">
   <location ref="A5:B13" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
   <pivotFields count="7">
     <pivotField compact="0" outline="0" showAll="0"/>
-    <pivotField axis="axisPage" compact="0" outline="0" showAll="0" multipleItemSelectionAllowed="1">
+    <pivotField axis="axisPage" compact="0" outline="0" multipleItemSelectionAllowed="1" showAll="0">
       <items count="7">
         <item x="0"/>
         <item h="1" x="3"/>
@@ -5590,10 +4595,10 @@
         <item t="default"/>
       </items>
     </pivotField>
-    <pivotField compact="0" outline="0" showAll="0" numFmtId="14"/>
+    <pivotField compact="0" numFmtId="14" outline="0" showAll="0"/>
     <pivotField compact="0" outline="0" showAll="0"/>
     <pivotField compact="0" outline="0" showAll="0"/>
-    <pivotField axis="axisPage" compact="0" outline="0" showAll="0" multipleItemSelectionAllowed="1">
+    <pivotField axis="axisPage" compact="0" outline="0" multipleItemSelectionAllowed="1" showAll="0">
       <items count="4">
         <item x="0"/>
         <item h="1" x="1"/>
@@ -5653,10 +4658,105 @@
   <dataFields count="1">
     <dataField name="Count of Department" fld="6" subtotal="count" baseField="0" baseItem="0"/>
   </dataFields>
+  <chartFormats count="8">
+    <chartFormat chart="0" format="1" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="2">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="6" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="3">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="6" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="4">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="6" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="5">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="6" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="6">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="6" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="7">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="6" count="1" selected="0">
+            <x v="5"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="8">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="6" count="1" selected="0">
+            <x v="6"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition hideValuesRow="1"/>
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
     </ext>
     <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
       <xpdl:pivotTableDefinition16/>
@@ -5666,11 +4766,11 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable2" cacheId="3328" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" showMissing="1" preserveFormatting="1" useAutoFormatting="1" itemPrintTitles="1" compact="0" compactData="0" createdVersion="8" updatedVersion="8" indent="0" multipleFieldFilters="0" showMemberPropertyTips="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0200-000001000000}" name="PivotTable2" cacheId="9" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0" chartFormat="1">
   <location ref="A6:B13" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="3" colPageCount="1"/>
   <pivotFields count="7">
     <pivotField compact="0" outline="0" showAll="0"/>
-    <pivotField axis="axisPage" compact="0" outline="0" showAll="0" multipleItemSelectionAllowed="1">
+    <pivotField axis="axisPage" compact="0" outline="0" multipleItemSelectionAllowed="1" showAll="0">
       <items count="7">
         <item x="0"/>
         <item h="1" x="3"/>
@@ -5681,8 +4781,8 @@
         <item t="default"/>
       </items>
     </pivotField>
-    <pivotField compact="0" outline="0" showAll="0" numFmtId="14"/>
-    <pivotField axis="axisPage" compact="0" outline="0" showAll="0" multipleItemSelectionAllowed="1">
+    <pivotField compact="0" numFmtId="14" outline="0" showAll="0"/>
+    <pivotField axis="axisPage" compact="0" outline="0" multipleItemSelectionAllowed="1" showAll="0">
       <items count="66">
         <item x="16"/>
         <item x="26"/>
@@ -5753,7 +4853,7 @@
       </items>
     </pivotField>
     <pivotField compact="0" outline="0" showAll="0"/>
-    <pivotField axis="axisPage" compact="0" outline="0" showAll="0" multipleItemSelectionAllowed="1">
+    <pivotField axis="axisPage" compact="0" outline="0" multipleItemSelectionAllowed="1" showAll="0">
       <items count="4">
         <item x="0"/>
         <item h="1" x="1"/>
@@ -5811,10 +4911,93 @@
   <dataFields count="1">
     <dataField name="Count of Department" fld="6" subtotal="count" baseField="0" baseItem="0"/>
   </dataFields>
+  <chartFormats count="7">
+    <chartFormat chart="0" format="1" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="2">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="6" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="3">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="6" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="4">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="6" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="5">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="6" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="6">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="6" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="7">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="6" count="1" selected="0">
+            <x v="5"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition hideValuesRow="1"/>
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
     </ext>
     <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
       <xpdl:pivotTableDefinition16/>
@@ -5824,7 +5007,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable3" cacheId="3328" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" showMissing="1" preserveFormatting="1" useAutoFormatting="1" itemPrintTitles="1" compact="0" compactData="0" createdVersion="8" updatedVersion="8" indent="0" multipleFieldFilters="0" showMemberPropertyTips="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000002000000}" name="PivotTable3" cacheId="9" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
   <location ref="A4:D59" firstHeaderRow="1" firstDataRow="1" firstDataCol="4"/>
   <pivotFields count="7">
     <pivotField axis="axisRow" compact="0" outline="0" showAll="0">
@@ -5945,8 +5128,8 @@
         <item t="default"/>
       </items>
     </pivotField>
-    <pivotField compact="0" outline="0" showAll="0" numFmtId="14"/>
-    <pivotField axis="axisRow" compact="0" outline="0" showAll="0" multipleItemSelectionAllowed="1" sortType="ascending">
+    <pivotField compact="0" numFmtId="14" outline="0" showAll="0"/>
+    <pivotField axis="axisRow" compact="0" outline="0" multipleItemSelectionAllowed="1" showAll="0" sortType="ascending">
       <items count="66">
         <item h="1" x="16"/>
         <item h="1" x="26"/>
@@ -6248,7 +5431,7 @@
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition hideValuesRow="1"/>
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
     </ext>
     <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
       <xpdl:pivotTableDefinition16/>
@@ -6258,7 +5441,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable4" cacheId="3328" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" showMissing="1" preserveFormatting="1" useAutoFormatting="1" itemPrintTitles="1" compact="0" compactData="0" createdVersion="8" updatedVersion="8" indent="0" multipleFieldFilters="0" showMemberPropertyTips="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0400-000003000000}" name="PivotTable4" cacheId="9" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
   <location ref="A4:C13" firstHeaderRow="1" firstDataRow="1" firstDataCol="3"/>
   <pivotFields count="7">
     <pivotField axis="axisRow" compact="0" outline="0" showAll="0">
@@ -6369,8 +5552,8 @@
       </items>
     </pivotField>
     <pivotField compact="0" outline="0" showAll="0"/>
-    <pivotField compact="0" outline="0" showAll="0" numFmtId="14"/>
-    <pivotField axis="axisRow" compact="0" outline="0" showAll="0" multipleItemSelectionAllowed="1" sortType="ascending">
+    <pivotField compact="0" numFmtId="14" outline="0" showAll="0"/>
+    <pivotField axis="axisRow" compact="0" outline="0" multipleItemSelectionAllowed="1" showAll="0" sortType="ascending">
       <items count="66">
         <item h="1" x="16"/>
         <item h="1" x="26"/>
@@ -6500,7 +5683,7 @@
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition hideValuesRow="1"/>
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
     </ext>
     <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
       <xpdl:pivotTableDefinition16/>
@@ -6825,25 +6008,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D67005AA-14C9-42D3-B3AE-54C5082D7456}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D67005AA-14C9-42D3-B3AE-54C5082D7456}">
   <dimension ref="A1:G105"/>
   <sheetViews>
-    <sheetView workbookViewId="0" topLeftCell="A1">
-      <selection pane="topLeft" activeCell="E96" sqref="E96"/>
+    <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
+      <selection activeCell="E96" sqref="E96"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.25" customWidth="1"/>
-    <col min="2" max="2" width="14.875" customWidth="1"/>
-    <col min="3" max="3" width="14.375" customWidth="1"/>
-    <col min="4" max="4" width="17.125" customWidth="1"/>
-    <col min="5" max="5" width="18.25" customWidth="1"/>
-    <col min="6" max="6" width="16.75" style="4" customWidth="1"/>
-    <col min="7" max="7" width="23.125" customWidth="1"/>
+    <col min="1" max="1" width="10.21875" customWidth="1"/>
+    <col min="2" max="2" width="14.88671875" customWidth="1"/>
+    <col min="3" max="3" width="14.33203125" customWidth="1"/>
+    <col min="4" max="4" width="20" customWidth="1"/>
+    <col min="5" max="5" width="19.77734375" customWidth="1"/>
+    <col min="6" max="6" width="16.77734375" style="4" customWidth="1"/>
+    <col min="7" max="7" width="23.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="30.6" thickBot="1">
+    <row r="1" spans="1:7" ht="34.799999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="5" t="s">
         <v>153</v>
       </c>
@@ -6866,7 +6049,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="18.6" customHeight="1" thickBot="1">
+    <row r="2" spans="1:7" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
@@ -6887,7 +6070,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="17.45" customHeight="1" thickBot="1">
+    <row r="3" spans="1:7" ht="17.399999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>11</v>
       </c>
@@ -6908,7 +6091,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="18" customHeight="1" thickBot="1">
+    <row r="4" spans="1:7" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>15</v>
       </c>
@@ -6929,7 +6112,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="18.6" customHeight="1" thickBot="1">
+    <row r="5" spans="1:7" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>17</v>
       </c>
@@ -6950,7 +6133,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="19.9" customHeight="1" thickBot="1">
+    <row r="6" spans="1:7" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>19</v>
       </c>
@@ -6971,7 +6154,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="16.9" customHeight="1" thickBot="1">
+    <row r="7" spans="1:7" ht="16.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>21</v>
       </c>
@@ -6992,7 +6175,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="16.9" customHeight="1" thickBot="1">
+    <row r="8" spans="1:7" ht="16.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
         <v>154</v>
       </c>
@@ -7013,7 +6196,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="16.15" customHeight="1" thickBot="1">
+    <row r="9" spans="1:7" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
         <v>25</v>
       </c>
@@ -7034,7 +6217,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="18" customHeight="1" thickBot="1">
+    <row r="10" spans="1:7" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
         <v>26</v>
       </c>
@@ -7055,7 +6238,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="18.6" customHeight="1" thickBot="1">
+    <row r="11" spans="1:7" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
         <v>27</v>
       </c>
@@ -7076,7 +6259,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="19.9" customHeight="1" thickBot="1">
+    <row r="12" spans="1:7" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
         <v>155</v>
       </c>
@@ -7097,7 +6280,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="18" customHeight="1" thickBot="1">
+    <row r="13" spans="1:7" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
         <v>156</v>
       </c>
@@ -7118,7 +6301,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="21.6" customHeight="1" thickBot="1">
+    <row r="14" spans="1:7" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
         <v>33</v>
       </c>
@@ -7139,7 +6322,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="19.9" customHeight="1" thickBot="1">
+    <row r="15" spans="1:7" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
         <v>34</v>
       </c>
@@ -7160,7 +6343,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="19.9" customHeight="1" thickBot="1">
+    <row r="16" spans="1:7" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
         <v>35</v>
       </c>
@@ -7181,7 +6364,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="18.6" customHeight="1" thickBot="1">
+    <row r="17" spans="1:7" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
         <v>157</v>
       </c>
@@ -7202,7 +6385,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="21.6" customHeight="1" thickBot="1">
+    <row r="18" spans="1:7" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
         <v>38</v>
       </c>
@@ -7223,7 +6406,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="19.9" customHeight="1" thickBot="1">
+    <row r="19" spans="1:7" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="1" t="s">
         <v>39</v>
       </c>
@@ -7244,7 +6427,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="20.45" customHeight="1" thickBot="1">
+    <row r="20" spans="1:7" ht="20.399999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="1" t="s">
         <v>40</v>
       </c>
@@ -7265,7 +6448,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="21" customHeight="1" thickBot="1">
+    <row r="21" spans="1:7" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="1" t="s">
         <v>41</v>
       </c>
@@ -7286,7 +6469,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="21.6" customHeight="1" thickBot="1">
+    <row r="22" spans="1:7" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="1" t="s">
         <v>42</v>
       </c>
@@ -7307,7 +6490,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="19.9" customHeight="1" thickBot="1">
+    <row r="23" spans="1:7" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="1" t="s">
         <v>43</v>
       </c>
@@ -7328,7 +6511,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="18.6" customHeight="1" thickBot="1">
+    <row r="24" spans="1:7" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="1" t="s">
         <v>44</v>
       </c>
@@ -7349,7 +6532,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="19.9" customHeight="1" thickBot="1">
+    <row r="25" spans="1:7" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="1" t="s">
         <v>158</v>
       </c>
@@ -7370,7 +6553,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="19.9" customHeight="1" thickBot="1">
+    <row r="26" spans="1:7" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="1" t="s">
         <v>46</v>
       </c>
@@ -7391,7 +6574,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="18" customHeight="1" thickBot="1">
+    <row r="27" spans="1:7" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="1" t="s">
         <v>47</v>
       </c>
@@ -7412,7 +6595,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="24" customHeight="1" thickBot="1">
+    <row r="28" spans="1:7" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="1" t="s">
         <v>48</v>
       </c>
@@ -7433,7 +6616,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="22.15" customHeight="1" thickBot="1">
+    <row r="29" spans="1:7" ht="22.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="1" t="s">
         <v>159</v>
       </c>
@@ -7454,7 +6637,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="19.9" customHeight="1" thickBot="1">
+    <row r="30" spans="1:7" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="1" t="s">
         <v>50</v>
       </c>
@@ -7475,7 +6658,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="31" spans="1:7" ht="20.45" customHeight="1" thickBot="1">
+    <row r="31" spans="1:7" ht="20.399999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="1" t="s">
         <v>51</v>
       </c>
@@ -7496,7 +6679,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="17.45" customHeight="1" thickBot="1">
+    <row r="32" spans="1:7" ht="17.399999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="1" t="s">
         <v>52</v>
       </c>
@@ -7517,7 +6700,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="21.6" customHeight="1" thickBot="1">
+    <row r="33" spans="1:7" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="1" t="s">
         <v>53</v>
       </c>
@@ -7538,7 +6721,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="21" customHeight="1" thickBot="1">
+    <row r="34" spans="1:7" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="1" t="s">
         <v>54</v>
       </c>
@@ -7559,7 +6742,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="35" spans="1:7" ht="22.15" customHeight="1" thickBot="1">
+    <row r="35" spans="1:7" ht="22.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" s="1" t="s">
         <v>55</v>
       </c>
@@ -7580,7 +6763,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="36" spans="1:7" ht="21.6" customHeight="1" thickBot="1">
+    <row r="36" spans="1:7" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A36" s="1" t="s">
         <v>56</v>
       </c>
@@ -7601,7 +6784,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="37" spans="1:7" ht="21" customHeight="1" thickBot="1">
+    <row r="37" spans="1:7" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A37" s="1" t="s">
         <v>57</v>
       </c>
@@ -7622,7 +6805,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="38" spans="1:7" ht="18.6" customHeight="1" thickBot="1">
+    <row r="38" spans="1:7" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="1" t="s">
         <v>58</v>
       </c>
@@ -7643,7 +6826,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="39" spans="1:7" ht="21" customHeight="1" thickBot="1">
+    <row r="39" spans="1:7" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A39" s="1" t="s">
         <v>59</v>
       </c>
@@ -7664,7 +6847,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="40" spans="1:7" ht="20.45" customHeight="1" thickBot="1">
+    <row r="40" spans="1:7" ht="20.399999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A40" s="1" t="s">
         <v>60</v>
       </c>
@@ -7685,7 +6868,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="41" spans="1:7" ht="19.9" customHeight="1" thickBot="1">
+    <row r="41" spans="1:7" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A41" s="1" t="s">
         <v>61</v>
       </c>
@@ -7706,7 +6889,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="42" spans="1:7" ht="21.6" customHeight="1" thickBot="1">
+    <row r="42" spans="1:7" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A42" s="1" t="s">
         <v>62</v>
       </c>
@@ -7727,7 +6910,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="43" spans="1:7" ht="22.15" customHeight="1" thickBot="1">
+    <row r="43" spans="1:7" ht="22.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43" s="1" t="s">
         <v>63</v>
       </c>
@@ -7748,7 +6931,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="44" spans="1:7" ht="18" customHeight="1" thickBot="1">
+    <row r="44" spans="1:7" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A44" s="1" t="s">
         <v>64</v>
       </c>
@@ -7769,7 +6952,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="45" spans="1:7" ht="18" customHeight="1" thickBot="1">
+    <row r="45" spans="1:7" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A45" s="1" t="s">
         <v>65</v>
       </c>
@@ -7790,7 +6973,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="46" spans="1:7" ht="20.45" customHeight="1" thickBot="1">
+    <row r="46" spans="1:7" ht="20.399999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A46" s="1" t="s">
         <v>66</v>
       </c>
@@ -7811,7 +6994,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="47" spans="1:7" ht="18.6" customHeight="1" thickBot="1">
+    <row r="47" spans="1:7" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A47" s="1" t="s">
         <v>67</v>
       </c>
@@ -7832,7 +7015,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="48" spans="1:7" ht="22.15" customHeight="1" thickBot="1">
+    <row r="48" spans="1:7" ht="22.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A48" s="1" t="s">
         <v>160</v>
       </c>
@@ -7853,7 +7036,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="49" spans="1:7" ht="20.45" customHeight="1" thickBot="1">
+    <row r="49" spans="1:7" ht="20.399999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A49" s="1" t="s">
         <v>161</v>
       </c>
@@ -7874,7 +7057,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="50" spans="1:7" ht="18" customHeight="1" thickBot="1">
+    <row r="50" spans="1:7" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A50" s="1" t="s">
         <v>70</v>
       </c>
@@ -7895,7 +7078,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="51" spans="1:7" ht="21.6" customHeight="1" thickBot="1">
+    <row r="51" spans="1:7" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A51" s="1" t="s">
         <v>71</v>
       </c>
@@ -7916,7 +7099,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="52" spans="1:7" ht="15.6" thickBot="1">
+    <row r="52" spans="1:7" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A52" s="1" t="s">
         <v>72</v>
       </c>
@@ -7937,7 +7120,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="53" spans="1:7" ht="15.6" thickBot="1">
+    <row r="53" spans="1:7" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A53" s="1" t="s">
         <v>73</v>
       </c>
@@ -7958,7 +7141,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="54" spans="1:7" ht="15.6" thickBot="1">
+    <row r="54" spans="1:7" ht="30.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A54" s="1" t="s">
         <v>75</v>
       </c>
@@ -7979,7 +7162,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="55" spans="1:7" ht="15.6" thickBot="1">
+    <row r="55" spans="1:7" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A55" s="1" t="s">
         <v>76</v>
       </c>
@@ -8000,7 +7183,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="56" spans="1:7" ht="15.6" thickBot="1">
+    <row r="56" spans="1:7" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A56" s="1" t="s">
         <v>77</v>
       </c>
@@ -8021,7 +7204,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="57" spans="1:7" ht="15.6" thickBot="1">
+    <row r="57" spans="1:7" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A57" s="1" t="s">
         <v>78</v>
       </c>
@@ -8042,7 +7225,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="58" spans="1:7" ht="15.6" thickBot="1">
+    <row r="58" spans="1:7" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A58" s="1" t="s">
         <v>79</v>
       </c>
@@ -8063,7 +7246,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="59" spans="1:7" ht="15.6" thickBot="1">
+    <row r="59" spans="1:7" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A59" s="1" t="s">
         <v>80</v>
       </c>
@@ -8084,7 +7267,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="60" spans="1:7" ht="15.6" thickBot="1">
+    <row r="60" spans="1:7" ht="30.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A60" s="1" t="s">
         <v>81</v>
       </c>
@@ -8105,7 +7288,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="61" spans="1:7" ht="15.6" thickBot="1">
+    <row r="61" spans="1:7" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A61" s="1" t="s">
         <v>82</v>
       </c>
@@ -8126,7 +7309,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="62" spans="1:7" ht="15.6" thickBot="1">
+    <row r="62" spans="1:7" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A62" s="1" t="s">
         <v>162</v>
       </c>
@@ -8147,7 +7330,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="63" spans="1:7" ht="15.6" thickBot="1">
+    <row r="63" spans="1:7" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A63" s="1" t="s">
         <v>84</v>
       </c>
@@ -8168,7 +7351,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="64" spans="1:7" ht="15.6" thickBot="1">
+    <row r="64" spans="1:7" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A64" s="1" t="s">
         <v>85</v>
       </c>
@@ -8189,7 +7372,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="65" spans="1:7" ht="15.6" thickBot="1">
+    <row r="65" spans="1:7" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A65" s="1" t="s">
         <v>86</v>
       </c>
@@ -8210,7 +7393,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="66" spans="1:7" ht="15.6" thickBot="1">
+    <row r="66" spans="1:7" ht="30.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A66" s="1" t="s">
         <v>87</v>
       </c>
@@ -8231,7 +7414,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="67" spans="1:7" ht="15.6" thickBot="1">
+    <row r="67" spans="1:7" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A67" s="1" t="s">
         <v>163</v>
       </c>
@@ -8252,7 +7435,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="68" spans="1:7" ht="15.6" thickBot="1">
+    <row r="68" spans="1:7" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A68" s="1" t="s">
         <v>89</v>
       </c>
@@ -8273,7 +7456,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="69" spans="1:7" ht="15.6" thickBot="1">
+    <row r="69" spans="1:7" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A69" s="1" t="s">
         <v>90</v>
       </c>
@@ -8294,7 +7477,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="70" spans="1:7" ht="15.6" thickBot="1">
+    <row r="70" spans="1:7" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A70" s="1" t="s">
         <v>91</v>
       </c>
@@ -8315,7 +7498,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="71" spans="1:7" ht="15.6" thickBot="1">
+    <row r="71" spans="1:7" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A71" s="1" t="s">
         <v>92</v>
       </c>
@@ -8336,7 +7519,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="72" spans="1:7" ht="15.6" thickBot="1">
+    <row r="72" spans="1:7" ht="30.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A72" s="1" t="s">
         <v>93</v>
       </c>
@@ -8357,7 +7540,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="73" spans="1:7" ht="15.6" thickBot="1">
+    <row r="73" spans="1:7" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A73" s="1" t="s">
         <v>94</v>
       </c>
@@ -8378,7 +7561,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="74" spans="1:7" ht="15.6" thickBot="1">
+    <row r="74" spans="1:7" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A74" s="1" t="s">
         <v>95</v>
       </c>
@@ -8399,7 +7582,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="75" spans="1:7" ht="15.6" thickBot="1">
+    <row r="75" spans="1:7" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A75" s="1" t="s">
         <v>164</v>
       </c>
@@ -8420,7 +7603,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="76" spans="1:7" ht="15.6" thickBot="1">
+    <row r="76" spans="1:7" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A76" s="1" t="s">
         <v>97</v>
       </c>
@@ -8441,7 +7624,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="77" spans="1:7" ht="15.6" thickBot="1">
+    <row r="77" spans="1:7" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A77" s="1" t="s">
         <v>98</v>
       </c>
@@ -8462,7 +7645,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="78" spans="1:7" ht="15.6" thickBot="1">
+    <row r="78" spans="1:7" ht="30.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A78" s="1" t="s">
         <v>99</v>
       </c>
@@ -8483,7 +7666,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="79" spans="1:7" ht="15.6" thickBot="1">
+    <row r="79" spans="1:7" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A79" s="1" t="s">
         <v>165</v>
       </c>
@@ -8504,7 +7687,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="80" spans="1:7" ht="15.6" thickBot="1">
+    <row r="80" spans="1:7" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A80" s="1" t="s">
         <v>101</v>
       </c>
@@ -8525,7 +7708,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="81" spans="1:7" ht="15.6" thickBot="1">
+    <row r="81" spans="1:7" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A81" s="1" t="s">
         <v>102</v>
       </c>
@@ -8546,7 +7729,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="82" spans="1:7" ht="15.6" thickBot="1">
+    <row r="82" spans="1:7" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A82" s="1" t="s">
         <v>103</v>
       </c>
@@ -8567,7 +7750,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="83" spans="1:7" ht="15.6" thickBot="1">
+    <row r="83" spans="1:7" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A83" s="1" t="s">
         <v>104</v>
       </c>
@@ -8588,7 +7771,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="84" spans="1:7" ht="15.6" thickBot="1">
+    <row r="84" spans="1:7" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A84" s="1" t="s">
         <v>166</v>
       </c>
@@ -8609,7 +7792,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="85" spans="1:7" ht="15.6" thickBot="1">
+    <row r="85" spans="1:7" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A85" s="1" t="s">
         <v>167</v>
       </c>
@@ -8630,7 +7813,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="86" spans="1:7" ht="15.6" thickBot="1">
+    <row r="86" spans="1:7" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A86" s="1" t="s">
         <v>107</v>
       </c>
@@ -8651,7 +7834,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="87" spans="1:7" ht="15.6" thickBot="1">
+    <row r="87" spans="1:7" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A87" s="1" t="s">
         <v>168</v>
       </c>
@@ -8672,7 +7855,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="88" spans="1:7" ht="15.6" thickBot="1">
+    <row r="88" spans="1:7" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A88" s="1" t="s">
         <v>109</v>
       </c>
@@ -8693,7 +7876,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="89" spans="1:7" ht="15.6" thickBot="1">
+    <row r="89" spans="1:7" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A89" s="1" t="s">
         <v>105</v>
       </c>
@@ -8714,7 +7897,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="90" spans="1:7" ht="15.6" thickBot="1">
+    <row r="90" spans="1:7" ht="30.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A90" s="1" t="s">
         <v>110</v>
       </c>
@@ -8735,7 +7918,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="91" spans="1:7" ht="15.6" thickBot="1">
+    <row r="91" spans="1:7" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A91" s="1" t="s">
         <v>111</v>
       </c>
@@ -8756,7 +7939,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="92" spans="1:7" ht="15.6" thickBot="1">
+    <row r="92" spans="1:7" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A92" s="1" t="s">
         <v>112</v>
       </c>
@@ -8777,7 +7960,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="93" spans="1:7" ht="15.6" thickBot="1">
+    <row r="93" spans="1:7" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A93" s="1" t="s">
         <v>113</v>
       </c>
@@ -8798,7 +7981,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="94" spans="1:7" ht="15.6" thickBot="1">
+    <row r="94" spans="1:7" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A94" s="1" t="s">
         <v>114</v>
       </c>
@@ -8819,7 +8002,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="95" spans="1:7" ht="15.6" thickBot="1">
+    <row r="95" spans="1:7" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A95" s="1" t="s">
         <v>169</v>
       </c>
@@ -8840,7 +8023,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="96" spans="1:7" ht="15.6" thickBot="1">
+    <row r="96" spans="1:7" ht="30.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A96" s="1" t="s">
         <v>116</v>
       </c>
@@ -8861,7 +8044,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="97" spans="1:7" ht="15.6" thickBot="1">
+    <row r="97" spans="1:7" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A97" s="1" t="s">
         <v>117</v>
       </c>
@@ -8882,7 +8065,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="98" spans="1:7" ht="15.6" thickBot="1">
+    <row r="98" spans="1:7" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A98" s="1" t="s">
         <v>118</v>
       </c>
@@ -8903,7 +8086,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="99" spans="1:7" ht="15.6" thickBot="1">
+    <row r="99" spans="1:7" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A99" s="1" t="s">
         <v>170</v>
       </c>
@@ -8924,7 +8107,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="100" spans="1:7" ht="15.6" thickBot="1">
+    <row r="100" spans="1:7" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A100" s="1" t="s">
         <v>115</v>
       </c>
@@ -8945,7 +8128,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="101" spans="1:7" ht="15.6" thickBot="1">
+    <row r="101" spans="1:7" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A101" s="1" t="s">
         <v>120</v>
       </c>
@@ -8966,7 +8149,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="102" spans="1:7" ht="18.6" customHeight="1" thickBot="1">
+    <row r="102" spans="1:7" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A102" s="1" t="s">
         <v>121</v>
       </c>
@@ -8987,7 +8170,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="103" spans="1:7" ht="19.9" customHeight="1" thickBot="1">
+    <row r="103" spans="1:7" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A103" s="1" t="s">
         <v>122</v>
       </c>
@@ -9008,7 +8191,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="104" spans="1:7" ht="16.9" customHeight="1" thickBot="1">
+    <row r="104" spans="1:7" ht="16.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A104" s="1" t="s">
         <v>123</v>
       </c>
@@ -9029,7 +8212,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="105" spans="1:7" ht="16.9" customHeight="1" thickBot="1">
+    <row r="105" spans="1:7" ht="16.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A105" s="1" t="s">
         <v>171</v>
       </c>
@@ -9056,253 +8239,246 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36B37C30-1EF2-4FA6-8D87-84F2CFB12A34}">
-  <dimension ref="A1:B13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36B37C30-1EF2-4FA6-8D87-84F2CFB12A34}">
+  <dimension ref="A2:B13"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0" topLeftCell="A1"/>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.75" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15"/>
-    <row r="2" spans="1:2" ht="15">
-      <c r="A2" s="7" t="s">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
         <v>5</v>
       </c>
       <c r="B2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="15">
-      <c r="A3" s="7" t="s">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
         <v>1</v>
       </c>
       <c r="B3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="15"/>
-    <row r="5" spans="1:2" ht="15">
-      <c r="A5" s="7" t="s">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
         <v>6</v>
       </c>
       <c r="B5" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="15">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>24</v>
       </c>
-      <c r="B6" s="8">
+      <c r="B6">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="15">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="8">
+      <c r="B7">
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="15">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="8">
+      <c r="B8">
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="15">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>18</v>
       </c>
-      <c r="B9" s="8">
+      <c r="B9">
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="15">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>74</v>
       </c>
-      <c r="B10" s="8">
+      <c r="B10">
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="15">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="8">
+      <c r="B11">
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="15">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>37</v>
       </c>
-      <c r="B12" s="8">
+      <c r="B12">
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="15" thickBot="1">
+    <row r="13" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>126</v>
       </c>
-      <c r="B13" s="8">
+      <c r="B13">
         <v>35</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88CC07EC-1F1B-4AB6-ABA2-1B0298D00F6E}">
-  <dimension ref="A1:B13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88CC07EC-1F1B-4AB6-ABA2-1B0298D00F6E}">
+  <dimension ref="A2:B13"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0" topLeftCell="A1"/>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="22" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15"/>
-    <row r="2" spans="1:2" ht="15">
-      <c r="A2" s="7" t="s">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
         <v>1</v>
       </c>
       <c r="B2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="15">
-      <c r="A3" s="7" t="s">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
         <v>5</v>
       </c>
       <c r="B3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="15">
-      <c r="A4" s="7" t="s">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
         <v>3</v>
       </c>
       <c r="B4" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="15"/>
-    <row r="6" spans="1:2" ht="15">
-      <c r="A6" s="7" t="s">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
         <v>6</v>
       </c>
       <c r="B6" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="15">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>24</v>
       </c>
-      <c r="B7" s="8">
+      <c r="B7">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="15">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>20</v>
       </c>
-      <c r="B8" s="8">
+      <c r="B8">
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="15">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="8">
+      <c r="B9">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="15">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="8">
+      <c r="B10">
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="15">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>74</v>
       </c>
-      <c r="B11" s="8">
+      <c r="B11">
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="15">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="8">
+      <c r="B12">
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="15">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>126</v>
       </c>
-      <c r="B13" s="8">
+      <c r="B13">
         <v>11</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{057554C6-4D49-4FA4-B6C1-650892D584CA}">
-  <dimension ref="A1:D59"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{057554C6-4D49-4FA4-B6C1-650892D584CA}">
+  <dimension ref="A4:D59"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0" topLeftCell="A1"/>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="22" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15"/>
-    <row r="2" spans="1:4" ht="15"/>
-    <row r="3" spans="1:4" ht="15"/>
-    <row r="4" spans="1:4" ht="15">
-      <c r="A4" s="7" t="s">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="D4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="15">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>24</v>
       </c>
@@ -9312,89 +8488,89 @@
       <c r="C5" t="s">
         <v>192</v>
       </c>
-      <c r="D5" s="9">
+      <c r="D5" s="7">
         <v>45823</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="15">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="15">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="15">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
         <v>30</v>
       </c>
       <c r="C8" t="s">
         <v>194</v>
       </c>
-      <c r="D8" s="9">
+      <c r="D8" s="7">
         <v>45752</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="15">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="15">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="15">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
         <v>49</v>
       </c>
       <c r="C11" t="s">
         <v>192</v>
       </c>
-      <c r="D11" s="9">
+      <c r="D11" s="7">
         <v>45807</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="15">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="15">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="15">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
         <v>100</v>
       </c>
       <c r="C14" t="s">
         <v>192</v>
       </c>
-      <c r="D14" s="9">
+      <c r="D14" s="7">
         <v>45807</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="15">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="15">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="15">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="15">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>20</v>
       </c>
@@ -9404,110 +8580,110 @@
       <c r="C18" t="s">
         <v>196</v>
       </c>
-      <c r="D18" s="9">
+      <c r="D18" s="7">
         <v>45797</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="15">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C19" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="15">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B20" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="15">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B21" t="s">
         <v>45</v>
       </c>
       <c r="C21" t="s">
         <v>196</v>
       </c>
-      <c r="D21" s="9">
+      <c r="D21" s="7">
         <v>45828</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="15">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C22" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="15">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B23" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="15">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B24" t="s">
         <v>69</v>
       </c>
       <c r="C24" t="s">
         <v>196</v>
       </c>
-      <c r="D24" s="9">
+      <c r="D24" s="7">
         <v>45752</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="15">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C25" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="15">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B26" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="15">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B27" t="s">
         <v>96</v>
       </c>
       <c r="C27" t="s">
         <v>196</v>
       </c>
-      <c r="D27" s="9">
+      <c r="D27" s="7">
         <v>45828</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="15">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C28" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="15">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B29" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="15">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B30" t="s">
         <v>106</v>
       </c>
       <c r="C30" t="s">
         <v>192</v>
       </c>
-      <c r="D30" s="9">
+      <c r="D30" s="7">
         <v>45772</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="15">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C31" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="15">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B32" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="15">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="15">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>14</v>
       </c>
@@ -9517,68 +8693,68 @@
       <c r="C34" t="s">
         <v>194</v>
       </c>
-      <c r="D34" s="9">
+      <c r="D34" s="7">
         <v>45777</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="15">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C35" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="15">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B36" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="15">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B37" t="s">
         <v>83</v>
       </c>
       <c r="C37" t="s">
         <v>31</v>
       </c>
-      <c r="D37" s="9">
+      <c r="D37" s="7">
         <v>45813</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="15">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C38" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="15">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B39" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="15">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B40" t="s">
         <v>124</v>
       </c>
       <c r="C40" t="s">
         <v>192</v>
       </c>
-      <c r="D40" s="9">
+      <c r="D40" s="7">
         <v>45823</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="15">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C41" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="42" spans="1:4" ht="15">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B42" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="43" spans="1:4" ht="15">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="44" spans="1:4" ht="15">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>18</v>
       </c>
@@ -9588,26 +8764,26 @@
       <c r="C44" t="s">
         <v>192</v>
       </c>
-      <c r="D44" s="9">
+      <c r="D44" s="7">
         <v>45818</v>
       </c>
     </row>
-    <row r="45" spans="1:4" ht="15">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C45" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="46" spans="1:4" ht="15">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B46" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="47" spans="1:4" ht="15">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="48" spans="1:4" ht="15">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>10</v>
       </c>
@@ -9617,26 +8793,26 @@
       <c r="C48" t="s">
         <v>196</v>
       </c>
-      <c r="D48" s="9">
+      <c r="D48" s="7">
         <v>45813</v>
       </c>
     </row>
-    <row r="49" spans="1:4" ht="15">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C49" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="50" spans="1:4" ht="15">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B50" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="51" spans="1:4" ht="15">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="52" spans="1:4" ht="15">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>37</v>
       </c>
@@ -9646,47 +8822,47 @@
       <c r="C52" t="s">
         <v>8</v>
       </c>
-      <c r="D52" s="9">
+      <c r="D52" s="7">
         <v>45818</v>
       </c>
     </row>
-    <row r="53" spans="1:4" ht="15">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C53" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="54" spans="1:4" ht="15">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B54" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="55" spans="1:4" ht="15">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B55" t="s">
         <v>108</v>
       </c>
       <c r="C55" t="s">
         <v>22</v>
       </c>
-      <c r="D55" s="9">
+      <c r="D55" s="7">
         <v>45782</v>
       </c>
     </row>
-    <row r="56" spans="1:4" ht="15">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C56" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="57" spans="1:4" ht="15">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B57" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="58" spans="1:4" ht="15">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="59" spans="1:4" ht="15">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>126</v>
       </c>
@@ -9697,88 +8873,85 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{936767C1-F437-4C6B-AAD7-0788BD81165F}">
-  <dimension ref="A1:C13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{936767C1-F437-4C6B-AAD7-0788BD81165F}">
+  <dimension ref="A4:C13"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0" topLeftCell="A1"/>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="22" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="26.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15"/>
-    <row r="2" spans="1:3" ht="15"/>
-    <row r="3" spans="1:3" ht="15"/>
-    <row r="4" spans="1:3" ht="15">
-      <c r="A4" s="7" t="s">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="15">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>24</v>
       </c>
       <c r="B5" t="s">
         <v>30</v>
       </c>
-      <c r="C5" s="9">
+      <c r="C5" s="7">
         <v>45752</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="15">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="15">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="15">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>20</v>
       </c>
       <c r="B8" t="s">
         <v>69</v>
       </c>
-      <c r="C8" s="9">
+      <c r="C8" s="7">
         <v>45752</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="15">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="15">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
         <v>106</v>
       </c>
-      <c r="C10" s="9">
+      <c r="C10" s="7">
         <v>45772</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="15">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="15">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="15">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>126</v>
       </c>
